--- a/livrables/Attendus.xlsx
+++ b/livrables/Attendus.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Analyse Fonctionnelle</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>Réalisés</t>
+  </si>
+  <si>
+    <t>Planning Previsionnel</t>
   </si>
 </sst>
 </file>
@@ -117,13 +120,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D18"/>
+  <dimension ref="B2:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -455,52 +459,58 @@
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="D9" s="4"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>5</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D10" s="2"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
         <v>14</v>
       </c>
     </row>

--- a/livrables/Attendus.xlsx
+++ b/livrables/Attendus.xlsx
@@ -408,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D19"/>
+  <dimension ref="B2:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -419,7 +419,7 @@
     <col min="2" max="2" width="27.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>15</v>
       </c>
@@ -427,74 +427,76 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>12</v>
       </c>

--- a/livrables/Attendus.xlsx
+++ b/livrables/Attendus.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
@@ -88,7 +88,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -107,6 +107,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -120,7 +126,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -128,6 +134,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,7 +418,7 @@
   <dimension ref="B2:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -479,42 +486,49 @@
       <c r="B12" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="2"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>8</v>
       </c>
+      <c r="D13" s="2"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>10</v>
       </c>
+      <c r="D14" s="3"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>11</v>
       </c>
+      <c r="D15" s="2"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>14</v>
       </c>
+      <c r="D19" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
